--- a/tabelle excel.xlsx
+++ b/tabelle excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergio\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergio\Documents\WORKSPACE-SQL\db-university\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249BA679-09B3-4A6B-9EE6-330D1A1585FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01905211-467A-43EC-A36A-341F4400A094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4962C189-4280-4FA1-970C-ECA76A8D5200}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{4962C189-4280-4FA1-970C-ECA76A8D5200}"/>
   </bookViews>
   <sheets>
     <sheet name="dipartimento" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="48">
   <si>
     <t>voto</t>
   </si>
@@ -163,12 +163,6 @@
   </si>
   <si>
     <t>TIME</t>
-  </si>
-  <si>
-    <t>Orario</t>
-  </si>
-  <si>
-    <t>nome corso</t>
   </si>
   <si>
     <t>Studente_id</t>
@@ -601,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8499A3-3039-41C6-BB0D-B219317CAEBE}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
@@ -777,7 +771,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -888,7 +882,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,7 +987,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1086,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1099,7 +1093,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,7 +1156,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -1171,12 +1165,12 @@
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -1185,7 +1179,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1207,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FB59BA-0D77-4AFA-8DAF-21AE6CBFF868}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,7 +1251,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1266,51 +1260,27 @@
         <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
